--- a/01_Raw_data/Aqualog_processing/projects/Howley_Bradford/raw data/04232024/04232024.xlsx
+++ b/01_Raw_data/Aqualog_processing/projects/Howley_Bradford/raw data/04232024/04232024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad.ufl.edu\ifas\SFRC\Groups\Hydrology\Aqualog FDOM Results\streams\04232024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Groups\Hydrology\Aqualog FDOM Results\streams\04232024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8A9606-41BC-4D0F-A6B9-9D23FC6FFEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43968593-663B-45FB-847E-6A79E27F077F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{EE9F5EAC-AE81-4378-ADE9-6C2A48D5B0BE}"/>
+    <workbookView xWindow="4388" yWindow="4388" windowWidth="15367" windowHeight="8370" xr2:uid="{EE9F5EAC-AE81-4378-ADE9-6C2A48D5B0BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="39">
   <si>
     <t>Vial ID</t>
   </si>
@@ -50,6 +50,36 @@
     <t xml:space="preserve">Ran </t>
   </si>
   <si>
+    <t>5a_550</t>
+  </si>
+  <si>
+    <t>15_409</t>
+  </si>
+  <si>
+    <t>14/9-601</t>
+  </si>
+  <si>
+    <t>15_4</t>
+  </si>
+  <si>
+    <t>5_597</t>
+  </si>
+  <si>
+    <t>15_516</t>
+  </si>
+  <si>
+    <t>5_546</t>
+  </si>
+  <si>
+    <t>5A_598</t>
+  </si>
+  <si>
+    <t>5_560</t>
+  </si>
+  <si>
+    <t>14_115</t>
+  </si>
+  <si>
     <t>5GW1</t>
   </si>
   <si>
@@ -77,15 +107,27 @@
     <t>9GW4</t>
   </si>
   <si>
+    <t>9_77</t>
+  </si>
+  <si>
     <t>5GW5</t>
   </si>
   <si>
+    <t>6A</t>
+  </si>
+  <si>
+    <t>3 (1)</t>
+  </si>
+  <si>
     <t>5GW2</t>
   </si>
   <si>
     <t>5GW3</t>
   </si>
   <si>
+    <t>5A</t>
+  </si>
+  <si>
     <t>13??</t>
   </si>
   <si>
@@ -111,12 +153,6 @@
   </si>
   <si>
     <t>4_23_2024</t>
-  </si>
-  <si>
-    <t>6a</t>
-  </si>
-  <si>
-    <t>5a</t>
   </si>
 </sst>
 </file>
@@ -158,9 +194,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -176,6 +213,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -495,20 +536,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF5AB09-596E-4362-8B60-7A67FF2FB9DC}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -519,513 +560,733 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1">
-        <v>45400</v>
+        <v>45397</v>
       </c>
       <c r="D2">
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>45400</v>
+        <v>45397</v>
       </c>
       <c r="D3">
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45397</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45397</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45397</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1">
-        <v>45400</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1">
-        <v>45400</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C7" s="1">
+        <v>45397</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8">
         <v>7</v>
-      </c>
-      <c r="C6" s="1">
-        <v>45400</v>
-      </c>
-      <c r="D6">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1">
-        <v>45400</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="1">
-        <v>45400</v>
+        <v>45397</v>
       </c>
       <c r="D8">
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="1">
-        <v>45400</v>
+        <v>45397</v>
       </c>
       <c r="D9">
         <v>6</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="1">
-        <v>45400</v>
+        <v>45397</v>
       </c>
       <c r="D10">
         <v>6</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="1">
-        <v>45400</v>
+        <v>45397</v>
       </c>
       <c r="D11">
         <v>6</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1">
+        <v>45400</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1">
+        <v>45400</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1">
+        <v>45400</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1">
+        <v>45400</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1">
+        <v>45400</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1">
+        <v>45400</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1">
+        <v>45400</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="1">
+        <v>45400</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="1">
+        <v>45400</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="1">
+        <v>45397</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
         <v>24</v>
       </c>
-      <c r="F11" t="s">
+      <c r="C22" s="1">
+        <v>45400</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="1">
+        <v>45400</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="1">
+        <v>45400</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="1">
+        <v>45400</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="C12" s="1">
-        <v>45400</v>
-      </c>
-      <c r="D12">
-        <v>6</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>23</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1">
-        <v>45400</v>
-      </c>
-      <c r="D13">
-        <v>6</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="1">
-        <v>45400</v>
-      </c>
-      <c r="D14">
-        <v>6</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>25</v>
-      </c>
-      <c r="B15">
+      <c r="B26">
         <v>13</v>
       </c>
-      <c r="C15" s="1">
-        <v>45400</v>
-      </c>
-      <c r="D15">
-        <v>6</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="C26" s="1">
+        <v>45400</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="1">
+        <v>45400</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
         <v>15</v>
       </c>
-      <c r="C16" s="1">
-        <v>45400</v>
-      </c>
-      <c r="D16">
-        <v>6</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>27</v>
-      </c>
-      <c r="B17">
-        <v>15</v>
-      </c>
-      <c r="C17" s="1">
-        <v>45400</v>
-      </c>
-      <c r="D17">
-        <v>6</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="C28" s="1">
+        <v>45400</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B18">
-        <v>6</v>
-      </c>
-      <c r="C18" s="1">
-        <v>45400</v>
-      </c>
-      <c r="D18">
-        <v>6</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="C29" s="1">
+        <v>45400</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="1">
-        <v>45400</v>
-      </c>
-      <c r="D19">
-        <v>6</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="1">
+        <v>45400</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="1">
-        <v>45400</v>
-      </c>
-      <c r="D20">
-        <v>6</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="1">
+        <v>45400</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="1">
-        <v>45400</v>
-      </c>
-      <c r="D21">
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="1">
+        <v>45400</v>
+      </c>
+      <c r="D32">
         <v>11</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="E32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="B22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="1">
-        <v>45400</v>
-      </c>
-      <c r="D22">
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="1">
+        <v>45400</v>
+      </c>
+      <c r="D33">
         <v>11</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="E33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="B23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="1">
-        <v>45400</v>
-      </c>
-      <c r="D23">
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="1">
+        <v>45400</v>
+      </c>
+      <c r="D34">
         <v>11</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="E34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="B24">
+      <c r="B35">
         <v>5</v>
       </c>
-      <c r="C24" s="1">
-        <v>45400</v>
-      </c>
-      <c r="D24">
-        <v>6</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="C35" s="1">
+        <v>45400</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="B25">
+      <c r="B36">
         <v>7</v>
       </c>
-      <c r="C25" s="1">
-        <v>45400</v>
-      </c>
-      <c r="D25">
-        <v>6</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="C36" s="1">
+        <v>45400</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="B26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="1">
-        <v>45400</v>
-      </c>
-      <c r="D26">
-        <v>6</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" t="s">
-        <v>23</v>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="1">
+        <v>45400</v>
+      </c>
+      <c r="D37">
+        <v>6</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1035,15 +1296,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BA68CBFD16DC53449C4E48007D132272" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c9efe32782083e3b8ee64a298b49c4f4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="fc0b80bc-e134-4e27-948d-ff6dae1487d4" xmlns:ns4="244edd8b-649c-4984-b672-4ab706cc63d5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fa6f2f331f0693709afcbcea22e0a1ff" ns3:_="" ns4:_="">
     <xsd:import namespace="fc0b80bc-e134-4e27-948d-ff6dae1487d4"/>
@@ -1264,6 +1516,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1273,14 +1534,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC05B25B-DF61-49FA-99B5-CE6F5FB8918A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B181D36-4147-4161-B05D-B2F0D876CB44}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1295,6 +1548,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC05B25B-DF61-49FA-99B5-CE6F5FB8918A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
